--- a/plan/test/repository/単体テスト仕様書-CustomerRepository.xlsx
+++ b/plan/test/repository/単体テスト仕様書-CustomerRepository.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\service\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A473D2A3-76C9-4003-946F-1034BDE63E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7D8516-B53B-495D-9D39-856212A7C9F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CustomerRepository" sheetId="166" r:id="rId1"/>
@@ -136,62 +136,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>次のデータを持つ部署オブジェクトがデータベースに登録できること
-部門ID: 5
-部門名: システム開発部</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">ツギノ </t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t xml:space="preserve">モツ </t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t xml:space="preserve">ブショ </t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t xml:space="preserve">トウロク </t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t xml:space="preserve">ブモン </t>
-    </rPh>
-    <rPh sb="40" eb="43">
-      <t xml:space="preserve">ブモンメイ </t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t xml:space="preserve">カイハツ </t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t xml:space="preserve">ブ </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データベースの部署テーブルに左記のデータのレコードが登録されていること</t>
-    <rPh sb="7" eb="9">
-      <t xml:space="preserve">ブショ </t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t xml:space="preserve">サキ </t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t xml:space="preserve">トウロク </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データベースの部署テーブルのレコードが全件取得できること</t>
-    <rPh sb="7" eb="9">
-      <t xml:space="preserve">ブショ </t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t xml:space="preserve">ゼンケン </t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t xml:space="preserve">シュトク </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>FS</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -227,20 +171,73 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>selectByIdAndPassword
-(id:Integer,password:String)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">当該メソッドを実行
+    <t xml:space="preserve">下記の引数を用いて当該メソッドを実行
 customer(
-customerId=
+customerId = null, customerName = "後藤三郎" customerNameNana =  "ゴトウサブロウ" , customerAddress1 = さいたま新都心55-5--5, customerAddress2 = null, customerPhoneNumber = 11-1111-1111, customerMailAddress = "goto@example.com" customerUserName = "goto", customerPassword = "passgoto", customerRegisterDate = 2000-01-01; 
 </t>
     <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
       <t xml:space="preserve">トウガイ </t>
     </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ジッコウ </t>
+    </rPh>
+    <rPh sb="64" eb="68">
+      <t>ゴトウサブロウ</t>
+    </rPh>
+    <rPh sb="125" eb="128">
+      <t>シントシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データベースの顧客テーブルに左記のデータのレコードが登録されていること</t>
     <rPh sb="7" eb="9">
-      <t xml:space="preserve">ジッコウ </t>
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>selectByIdAndPassword
+(mailAddress:MailAddress,password:String)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下記の引数を用いて当該メソッドを実行
+mailAddress = yamada@example.com
+password = "passyamada"</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データベースの顧客テーブルから顧客（山田太郎）のレコードのデータが取れていること</t>
+    <rPh sb="7" eb="9">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>ヤマダタロウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ト</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -457,50 +454,50 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -854,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -872,56 +869,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -959,20 +956,20 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="20" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="22"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="20"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -982,96 +979,88 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="P4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="15"/>
+      <c r="Q4" s="17"/>
     </row>
-    <row r="5" spans="1:17" ht="55" customHeight="1">
+    <row r="5" spans="1:17" ht="113" customHeight="1">
       <c r="A5" s="11">
         <v>1</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="25"/>
+        <v>19</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
     </row>
-    <row r="6" spans="1:17" ht="60" customHeight="1">
+    <row r="6" spans="1:17" ht="67.5" customHeight="1">
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="25"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
     </row>
     <row r="7" spans="1:17" ht="42" customHeight="1">
       <c r="A7" s="11">
         <v>3</v>
       </c>
       <c r="B7" s="13"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="28"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="26"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H7:L7"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
@@ -1081,6 +1070,14 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="F2:M2"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:L7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/test/repository/単体テスト仕様書-CustomerRepository.xlsx
+++ b/plan/test/repository/単体テスト仕様書-CustomerRepository.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\ec-b\plan\test\repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7D8516-B53B-495D-9D39-856212A7C9F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6015E55-1ADD-4C28-83FD-1AFB8009719F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7660" yWindow="890" windowWidth="12080" windowHeight="7270" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CustomerRepository" sheetId="166" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>作成者</t>
   </si>
@@ -239,6 +239,10 @@
     <rPh sb="33" eb="34">
       <t>ト</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>selectByUsername</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -457,10 +461,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -489,15 +502,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -851,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:L6"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -869,25 +873,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -902,23 +906,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -956,20 +960,20 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="20"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="23"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -979,10 +983,10 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="17"/>
+      <c r="Q4" s="16"/>
     </row>
     <row r="5" spans="1:17" ht="113" customHeight="1">
       <c r="A5" s="11">
@@ -991,25 +995,25 @@
       <c r="B5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="21" t="s">
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
     </row>
     <row r="6" spans="1:17" ht="67.5" customHeight="1">
       <c r="A6" s="11">
@@ -1018,49 +1022,59 @@
       <c r="B6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="21" t="s">
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="23"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="26"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
     </row>
     <row r="7" spans="1:17" ht="42" customHeight="1">
       <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="26"/>
+      <c r="B7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="29"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:L7"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
@@ -1070,14 +1084,6 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="F2:M2"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H7:L7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/test/repository/単体テスト仕様書-CustomerRepository.xlsx
+++ b/plan/test/repository/単体テスト仕様書-CustomerRepository.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\ec-b\plan\test\repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6015E55-1ADD-4C28-83FD-1AFB8009719F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD395180-CA81-4A67-82DD-441CF4C5EF55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7660" yWindow="890" windowWidth="12080" windowHeight="7270" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CustomerRepository" sheetId="166" r:id="rId1"/>
@@ -212,11 +212,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>selectByIdAndPassword
-(mailAddress:MailAddress,password:String)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>下記の引数を用いて当該メソッドを実行
 mailAddress = yamada@example.com
 password = "passyamada"</t>
@@ -243,6 +238,11 @@
   </si>
   <si>
     <t>selectByUsername</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>selectByIdAndPassword
+(mailAddress:String,password:String)</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -461,47 +461,47 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -855,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -873,25 +873,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -906,23 +906,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -960,20 +960,20 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="21" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="20"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -983,10 +983,10 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="16"/>
+      <c r="Q4" s="17"/>
     </row>
     <row r="5" spans="1:17" ht="113" customHeight="1">
       <c r="A5" s="11">
@@ -995,86 +995,78 @@
       <c r="B5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="24" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="26"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
     </row>
     <row r="6" spans="1:17" ht="67.5" customHeight="1">
       <c r="A6" s="11">
         <v>2</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="26"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
     </row>
     <row r="7" spans="1:17" ht="42" customHeight="1">
       <c r="A7" s="11">
         <v>3</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="29"/>
+        <v>24</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="26"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H7:L7"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
@@ -1084,6 +1076,14 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="F2:M2"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:L7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/test/repository/単体テスト仕様書-CustomerRepository.xlsx
+++ b/plan/test/repository/単体テスト仕様書-CustomerRepository.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD395180-CA81-4A67-82DD-441CF4C5EF55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB91B952-EA1E-45B0-91BB-BEB5E7D8BA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -856,7 +856,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:G6"/>
+      <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>

--- a/plan/test/repository/単体テスト仕様書-CustomerRepository.xlsx
+++ b/plan/test/repository/単体テスト仕様書-CustomerRepository.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB91B952-EA1E-45B0-91BB-BEB5E7D8BA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB6C834-23B3-4CC8-9890-274A3E73E6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CustomerRepository" sheetId="166" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>作成者</t>
   </si>
@@ -171,9 +171,35 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>データベースの顧客テーブルに左記のデータのレコードが登録されていること</t>
+    <rPh sb="7" eb="9">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>selectByMailAddress
+(mailAddress:String):Customer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下記の引数を用いて当該メソッドを実行
+mailAddress =tanaka@email.jp</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t xml:space="preserve">下記の引数を用いて当該メソッドを実行
 customer(
-customerId = null, customerName = "後藤三郎" customerNameNana =  "ゴトウサブロウ" , customerAddress1 = さいたま新都心55-5--5, customerAddress2 = null, customerPhoneNumber = 11-1111-1111, customerMailAddress = "goto@example.com" customerUserName = "goto", customerPassword = "passgoto", customerRegisterDate = 2000-01-01; 
+customerId = null, customerName = 後藤三郎 customerNameNana =  ゴトウサブロウ , customerAddress1 = さいたま新都心55-5--5, customerAddress2 = null, customerPhoneNumber = 11-1111-1111, customerMailAddress = goto@example.com, customerUserName = goto, customerPassword = passgoto, customerRegisterDate = 2000-01-01; 
 </t>
     <rPh sb="0" eb="2">
       <t>カキ</t>
@@ -190,59 +216,46 @@
     <rPh sb="16" eb="18">
       <t xml:space="preserve">ジッコウ </t>
     </rPh>
-    <rPh sb="64" eb="68">
+    <rPh sb="63" eb="67">
       <t>ゴトウサブロウ</t>
     </rPh>
-    <rPh sb="125" eb="128">
+    <rPh sb="121" eb="124">
       <t>シントシン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>データベースの顧客テーブルに左記のデータのレコードが登録されていること</t>
+    <t>データベースの顧客テーブルからMail_Addressがtanaka@email.jpの顧客(田中太郎)のデータが取れていること</t>
     <rPh sb="7" eb="9">
       <t>コキャク</t>
     </rPh>
-    <rPh sb="14" eb="16">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>下記の引数を用いて当該メソッドを実行
-mailAddress = yamada@example.com
-password = "passyamada"</t>
+    <rPh sb="44" eb="46">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="47" eb="51">
+      <t>タナカタロウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>selectAll():List&lt;Customer&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>当該のメソッドを実行</t>
     <rPh sb="0" eb="2">
-      <t>カキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データベースの顧客テーブルから顧客（山田太郎）のレコードのデータが取れていること</t>
-    <rPh sb="7" eb="9">
-      <t>コキャク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>コキャク</t>
-    </rPh>
-    <rPh sb="18" eb="22">
-      <t>ヤマダタロウ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>selectByUsername</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>selectByIdAndPassword
-(mailAddress:String,password:String)</t>
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データベースの顧客テーブルからすべてのレコードのデータが取れていること</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -414,7 +427,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -461,10 +474,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -488,20 +510,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -855,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:G7"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -873,25 +883,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -906,23 +916,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -960,20 +970,20 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="20"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="23"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -983,10 +993,10 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="17"/>
+      <c r="Q4" s="16"/>
     </row>
     <row r="5" spans="1:17" ht="113" customHeight="1">
       <c r="A5" s="11">
@@ -995,66 +1005,70 @@
       <c r="B5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
     </row>
     <row r="6" spans="1:17" ht="67.5" customHeight="1">
       <c r="A6" s="11">
         <v>2</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="23"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="26"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
     </row>
     <row r="7" spans="1:17" ht="42" customHeight="1">
       <c r="A7" s="11">
         <v>3</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="24"/>
+        <v>25</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="24" t="s">
+        <v>27</v>
+      </c>
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
       <c r="K7" s="25"/>
@@ -1062,11 +1076,19 @@
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:L7"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
@@ -1076,14 +1098,6 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="F2:M2"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H7:L7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/test/repository/単体テスト仕様書-CustomerRepository.xlsx
+++ b/plan/test/repository/単体テスト仕様書-CustomerRepository.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\ec-b\plan\test\repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB6C834-23B3-4CC8-9890-274A3E73E6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE07D3AB-ECBD-4E7E-BC03-EE74AFA6DD6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>作成者</t>
   </si>
@@ -256,6 +256,17 @@
   </si>
   <si>
     <t>データベースの顧客テーブルからすべてのレコードのデータが取れていること</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>古市</t>
+    <rPh sb="0" eb="2">
+      <t>フルイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -427,7 +438,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -474,43 +485,46 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -866,7 +880,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -883,25 +897,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -916,23 +930,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -970,20 +984,20 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="21" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="22"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -993,10 +1007,10 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="16"/>
+      <c r="Q4" s="19"/>
     </row>
     <row r="5" spans="1:17" ht="113" customHeight="1">
       <c r="A5" s="11">
@@ -1005,25 +1019,31 @@
       <c r="B5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="24" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="29">
+        <v>45509</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
     </row>
     <row r="6" spans="1:17" ht="67.5" customHeight="1">
       <c r="A6" s="11">
@@ -1032,25 +1052,31 @@
       <c r="B6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="24" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="29">
+        <v>45509</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
     </row>
     <row r="7" spans="1:17" ht="42" customHeight="1">
       <c r="A7" s="11">
@@ -1059,36 +1085,34 @@
       <c r="B7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="24" t="s">
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="28"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="29">
+        <v>45509</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H7:L7"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
@@ -1098,6 +1122,14 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="F2:M2"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:L7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
